--- a/api/temp/result.xlsx
+++ b/api/temp/result.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,74 +623,351 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>野上 洋平</t>
+          <t>吉田 たくま</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>S00751529</t>
+          <t>yoshida</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aaaaa</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aaaa</t>
         </is>
       </c>
       <c r="G4" s="9" t="inlineStr">
         <is>
-          <t>https://aaaa.com</t>
+          <t>https://www.miracleave.co.jp/contents/97/mysql-delete-forginkey/</t>
         </is>
       </c>
       <c r="H4" s="10" t="n">
-        <v>45152.9953437037</v>
-      </c>
-      <c r="I4" s="7" t="n"/>
+        <v>45153.00781076389</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="100" customHeight="1">
       <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>吉田 たくま</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>yoshida</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>https://blog.maromaro.co.jp/stylerecipe</t>
+        </is>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>45153.01203547454</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1">
+      <c r="A6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>ゆううう</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>45153.69636401621</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="100" customHeight="1">
+      <c r="A7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="G7" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>45152.9953437037</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="100" customHeight="1">
+      <c r="A8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>吉田 たくま</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>yoshida</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>45153.00122935185</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1">
+      <c r="A9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="B9" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>吉田 たくま</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>yoshida</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>45153.00134438658</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1">
+      <c r="A10" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>吉田 たくま</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>yoshida</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>45153.00137561343</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="100" customHeight="1">
+      <c r="A11" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>吉田 たくま</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>yoshida</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>45153.00153541667</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="100" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>野上 洋平</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>S00751529</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>あ愛</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>https://aaaa.com</t>
         </is>
       </c>
-      <c r="H5" s="10" t="n">
-        <v>45152.9952299537</v>
-      </c>
-      <c r="I5" s="7" t="n"/>
+      <c r="H12" s="10" t="n">
+        <v>45153.69636056713</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
@@ -699,6 +976,13 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId3"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/temp/result.xlsx
+++ b/api/temp/result.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
@@ -559,24 +559,24 @@
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>ああ</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="G2" s="9" t="inlineStr">
         <is>
-          <t>https://daeudaeu.com/django-relation/</t>
+          <t>https://aaaa.com</t>
         </is>
       </c>
       <c r="H2" s="10" t="n">
-        <v>45152.99676005787</v>
+        <v>45154.81993704861</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="100" customHeight="1">
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="H3" s="10" t="n">
-        <v>45152.99535207176</v>
+        <v>45154.81991543982</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="100" customHeight="1">
@@ -623,38 +623,38 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>吉田 たくま</t>
+          <t>野上 洋平</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>yoshida</t>
+          <t>S00751529</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>aaaaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="G4" s="9" t="inlineStr">
         <is>
-          <t>https://www.miracleave.co.jp/contents/97/mysql-delete-forginkey/</t>
+          <t>https://aaaa.com</t>
         </is>
       </c>
       <c r="H4" s="10" t="n">
-        <v>45153.00781076389</v>
+        <v>45154.81989636574</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="100" customHeight="1">
@@ -662,38 +662,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>吉田 たくま</t>
+          <t>野上 洋平</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>yoshida</t>
+          <t>S00751529</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>ああ</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>ああ</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="G5" s="9" t="inlineStr">
         <is>
-          <t>https://blog.maromaro.co.jp/stylerecipe</t>
+          <t>https://aaaa.com</t>
         </is>
       </c>
       <c r="H5" s="10" t="n">
-        <v>45153.01203547454</v>
+        <v>45154.81985959491</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="100" customHeight="1">
@@ -701,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
@@ -715,12 +715,12 @@
       </c>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>ゆううう</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
         <is>
-          <t>ああ</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="G6" s="9" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="H6" s="10" t="n">
-        <v>45153.69636401621</v>
+        <v>45154.81984006945</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="100" customHeight="1">
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="H7" s="10" t="n">
-        <v>45152.9953437037</v>
+        <v>45154.81876201389</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>0</v>
@@ -779,26 +779,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>吉田 たくま</t>
+          <t>野上 洋平</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>yoshida</t>
+          <t>S00751529</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="G8" s="9" t="inlineStr">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="H8" s="10" t="n">
-        <v>45153.00122935185</v>
+        <v>45154.81873609954</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>0</v>
@@ -818,26 +818,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>吉田 たくま</t>
+          <t>野上 洋平</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>yoshida</t>
+          <t>S00751529</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="G9" s="9" t="inlineStr">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="H9" s="10" t="n">
-        <v>45153.00134438658</v>
+        <v>45154.81870521991</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>0</v>
@@ -857,26 +857,26 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>吉田 たくま</t>
+          <t>野上 洋平</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>yoshida</t>
+          <t>S00751529</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="G10" s="9" t="inlineStr">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="H10" s="10" t="n">
-        <v>45153.00137561343</v>
+        <v>45154.81733454861</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>吉田 たくま</t>
+          <t>野上 洋平</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>yoshida</t>
+          <t>S00751529</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="H11" s="10" t="n">
-        <v>45153.00153541667</v>
+        <v>45154.81728118056</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>あ愛</t>
+          <t>ああ</t>
         </is>
       </c>
       <c r="F12" s="8" t="inlineStr">
@@ -959,14 +959,131 @@
       </c>
       <c r="G12" s="9" t="inlineStr">
         <is>
-          <t>https://aaaa.com</t>
+          <t>http://127.0.0.1:8000/api/</t>
         </is>
       </c>
       <c r="H12" s="10" t="n">
-        <v>45153.69636056713</v>
+        <v>45154.80089681713</v>
       </c>
       <c r="I12" s="7" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="100" customHeight="1">
+      <c r="A13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>音響メタマテの開発</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。 CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+        </is>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>45154.49414413195</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1">
+      <c r="A14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>音響メタマテの開発</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。 CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+        </is>
+      </c>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>45154.49414233796</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1">
+      <c r="A15" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>音響メタマテの開発</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。 CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+        </is>
+      </c>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+        </is>
+      </c>
+      <c r="H15" s="10" t="n">
+        <v>45154.49410549769</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -983,6 +1100,9 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" r:id="rId9"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" r:id="rId10"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/temp/result.xlsx
+++ b/api/temp/result.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,13 +539,18 @@
           <t>閲覧者数</t>
         </is>
       </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>登録者ID</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="100" customHeight="1">
       <c r="A2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
@@ -559,24 +564,28 @@
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>音響メタマテの開発</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
+CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
         </is>
       </c>
       <c r="G2" s="9" t="inlineStr">
         <is>
-          <t>https://aaaa.com</t>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
         </is>
       </c>
       <c r="H2" s="10" t="n">
-        <v>45154.81993704861</v>
+        <v>45166.61074517361</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="100" customHeight="1">
@@ -584,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
@@ -598,23 +607,27 @@
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>音響メタマテの開発</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
+CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
         </is>
       </c>
       <c r="G3" s="9" t="inlineStr">
         <is>
-          <t>https://aaaa.com</t>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
         </is>
       </c>
       <c r="H3" s="10" t="n">
-        <v>45154.81991543982</v>
+        <v>45166.6106784375</v>
       </c>
       <c r="I3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -623,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
@@ -637,472 +650,36 @@
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>音響メタマテの開発</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
+CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
         </is>
       </c>
       <c r="G4" s="9" t="inlineStr">
         <is>
-          <t>https://aaaa.com</t>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
         </is>
       </c>
       <c r="H4" s="10" t="n">
-        <v>45154.81989636574</v>
+        <v>45166.61069846064</v>
       </c>
       <c r="I4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="100" customHeight="1">
-      <c r="A5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>77</v>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="inlineStr">
-        <is>
-          <t>https://aaaa.com</t>
-        </is>
-      </c>
-      <c r="H5" s="10" t="n">
-        <v>45154.81985959491</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="100" customHeight="1">
-      <c r="A6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="inlineStr">
-        <is>
-          <t>https://aaaa.com</t>
-        </is>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>45154.81984006945</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="100" customHeight="1">
-      <c r="A7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="inlineStr">
-        <is>
-          <t>https://aaaa.com</t>
-        </is>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>45154.81876201389</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="100" customHeight="1">
-      <c r="A8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>https://aaaa.com</t>
-        </is>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>45154.81873609954</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1">
-      <c r="A9" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>73</v>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>https://aaaa.com</t>
-        </is>
-      </c>
-      <c r="H9" s="10" t="n">
-        <v>45154.81870521991</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1">
-      <c r="A10" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>72</v>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>https://aaaa.com</t>
-        </is>
-      </c>
-      <c r="H10" s="10" t="n">
-        <v>45154.81733454861</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1">
-      <c r="A11" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>71</v>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>https://aaaa.com</t>
-        </is>
-      </c>
-      <c r="H11" s="10" t="n">
-        <v>45154.81728118056</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="100" customHeight="1">
-      <c r="A12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>ああ</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>ああ</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/api/</t>
-        </is>
-      </c>
-      <c r="H12" s="10" t="n">
-        <v>45154.80089681713</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="100" customHeight="1">
-      <c r="A13" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>音響メタマテの開発</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。 CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
-        </is>
-      </c>
-      <c r="G13" s="9" t="inlineStr">
-        <is>
-          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
-        </is>
-      </c>
-      <c r="H13" s="10" t="n">
-        <v>45154.49414413195</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="100" customHeight="1">
-      <c r="A14" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>音響メタマテの開発</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr">
-        <is>
-          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。 CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
-        </is>
-      </c>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
-        </is>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>45154.49414233796</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="100" customHeight="1">
-      <c r="A15" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>野上 洋平</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>S00751529</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>音響メタマテの開発</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。 CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
-        </is>
-      </c>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
-        </is>
-      </c>
-      <c r="H15" s="10" t="n">
-        <v>45154.49410549769</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:J1"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/temp/result.xlsx
+++ b/api/temp/result.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,42 +550,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>野上 洋平</t>
+          <t>前田 大地</t>
         </is>
       </c>
       <c r="D2" s="7" t="inlineStr">
         <is>
-          <t>S00751529</t>
+          <t>S00751530</t>
         </is>
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>音響メタマテの開発</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
-CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="G2" s="9" t="inlineStr">
         <is>
-          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+          <t>http://127.0.0.1:8000/api/</t>
         </is>
       </c>
       <c r="H2" s="10" t="n">
-        <v>45166.61074517361</v>
+        <v>45192.54056440972</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="100" customHeight="1">
@@ -593,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
@@ -602,30 +601,29 @@
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>S00751529</t>
+          <t>S00751528</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>音響メタマテの開発</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
-          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
-CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="G3" s="9" t="inlineStr">
         <is>
-          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+          <t>https://aaaa.com</t>
         </is>
       </c>
       <c r="H3" s="10" t="n">
-        <v>45166.6106784375</v>
+        <v>45192.537249375</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="7" t="n">
         <v>0</v>
@@ -636,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
@@ -645,33 +643,711 @@
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>S00751529</t>
+          <t>S00751528</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>45192.53724140046</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="100" customHeight="1">
+      <c r="A5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>238</v>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>ｓｓ</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>45191.3772261574</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1">
+      <c r="A6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>237</v>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>ｓｓ</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>45191.37722428241</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="100" customHeight="1">
+      <c r="A7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>ｓｓ</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G7" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>45191.37722262731</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="100" customHeight="1">
+      <c r="A8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>235</v>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>ｓｓ</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>45191.37722114583</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1">
+      <c r="A9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>234</v>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>ｓｓ</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>45191.37721975694</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1">
+      <c r="A10" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>233</v>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>ｓｓ</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>45191.37721771991</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="100" customHeight="1">
+      <c r="A11" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>232</v>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>ｓｓ</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>45191.37721675926</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="100" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>ｓｓ</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>ああ</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>45191.37721421296</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="100" customHeight="1">
+      <c r="A13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>https://aaaa.com</t>
+        </is>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>45191.00288236111</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1">
+      <c r="A14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
           <t>音響メタマテの開発</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
 CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
+      <c r="G14" s="9" t="inlineStr">
         <is>
           <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
         </is>
       </c>
-      <c r="H4" s="10" t="n">
-        <v>45166.61069846064</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>0</v>
+      <c r="H14" s="10" t="n">
+        <v>45166.6106784375</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1">
+      <c r="A15" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>音響メタマテの開発</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
+CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+        </is>
+      </c>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+        </is>
+      </c>
+      <c r="H15" s="10" t="n">
+        <v>45166.6106175463</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="100" customHeight="1">
+      <c r="A16" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>153</v>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>音響メタマテの開発</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
+CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+        </is>
+      </c>
+      <c r="G16" s="9" t="inlineStr">
+        <is>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+        </is>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>45166.61059998842</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="100" customHeight="1">
+      <c r="A17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>152</v>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>音響メタマテの開発</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
+CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+        </is>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>45166.61058168981</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="100" customHeight="1">
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>151</v>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>音響メタマテの開発</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
+CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+        </is>
+      </c>
+      <c r="G18" s="9" t="inlineStr">
+        <is>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+        </is>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>45166.61056077547</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="100" customHeight="1">
+      <c r="A19" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>音響メタマテの開発</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
+CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+        </is>
+      </c>
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+        </is>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>45166.6105399537</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="100" customHeight="1">
+      <c r="A20" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>149</v>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>野上 洋平</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>S00751529</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>音響メタマテの開発</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>本報告書は軽量防音ボードの開発の続報で、遮音パネルの技術探索について報告する。_x000D_
+CAEのビード最適化によって、遮音パネルの1次共振周波数を大幅に向上し、500Hzより低い周波数の音響透過損失を10dB以上向上した。しかし、500Hz以上の遮音性能が低いという課題があった。そこで、2重壁構造を検討し、CAEを活用して形状を改良することで、10kg/m2の質量則に対して、半分の重量で全周波数の遮音性能を10dB向上した。</t>
+        </is>
+      </c>
+      <c r="G20" s="9" t="inlineStr">
+        <is>
+          <t>https://sekisui.box.com/s/nfa8khxrwl7r5su1he7reunjf9hlf8z4</t>
+        </is>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>45166.61050386574</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -680,6 +1356,22 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
